--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_9.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_9.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9986965404031212</v>
+        <v>0.9361078327997836</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8277644069951409</v>
+        <v>0.7342012513553331</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8167951536543727</v>
+        <v>0.6655136932949934</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9978349877484921</v>
+        <v>0.929391195157053</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005425685370251019</v>
+        <v>0.2659528516894</v>
       </c>
       <c r="G2" t="n">
-        <v>1.151740203495476</v>
+        <v>1.777397456077587</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6553131125509684</v>
+        <v>1.1964381244534</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005723065296426599</v>
+        <v>0.2426644057093254</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1275541051880958</v>
+        <v>1.339778982001366</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07365925176276922</v>
+        <v>0.515706167976882</v>
       </c>
       <c r="L2" t="n">
-        <v>1.083421414200245</v>
+        <v>0.9129978999826841</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07481931134579486</v>
+        <v>0.5238280246054799</v>
       </c>
       <c r="N2" t="n">
-        <v>140.4332221040103</v>
+        <v>36.64887247039784</v>
       </c>
       <c r="O2" t="n">
-        <v>281.7683946472267</v>
+        <v>73.61345605862365</v>
       </c>
     </row>
     <row r="3">
@@ -561,438 +561,438 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9987462163503938</v>
+        <v>0.935495802500682</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8274706919130483</v>
+        <v>0.7302465699309184</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8159845596844867</v>
+        <v>0.6692049301369838</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9977816802325502</v>
+        <v>0.9114656322763512</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005218907913537755</v>
+        <v>0.268500444148681</v>
       </c>
       <c r="G3" t="n">
-        <v>1.153704277601862</v>
+        <v>1.803842428972282</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6582125601803115</v>
+        <v>1.18323478429981</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005863980154674485</v>
+        <v>0.3042699812905292</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1233585064191787</v>
+        <v>1.335364659923351</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07224200934039525</v>
+        <v>0.5181702848954974</v>
       </c>
       <c r="L3" t="n">
-        <v>1.080242153574794</v>
+        <v>0.9121644970222053</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07337974877199117</v>
+        <v>0.5263309489023505</v>
       </c>
       <c r="N3" t="n">
-        <v>140.5109342218828</v>
+        <v>36.62980542169911</v>
       </c>
       <c r="O3" t="n">
-        <v>281.8461067650993</v>
+        <v>73.59438900992492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_9</t>
+          <t>model_1_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999318899217004</v>
+        <v>0.9353790561271469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.82664868117521</v>
+        <v>0.7298096965913468</v>
       </c>
       <c r="D4" t="n">
-        <v>0.815458192090368</v>
+        <v>0.6695019610432258</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9984808736145564</v>
+        <v>0.9093753032176422</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00283510019245437</v>
+        <v>0.2689864040452795</v>
       </c>
       <c r="G4" t="n">
-        <v>1.159201067190798</v>
+        <v>1.806763803005615</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6600953465439277</v>
+        <v>1.182172321971024</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004015709145000446</v>
+        <v>0.3114539077129753</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1097604181268198</v>
+        <v>1.335026259375377</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05324565890712941</v>
+        <v>0.5186389920216947</v>
       </c>
       <c r="L4" t="n">
-        <v>1.043590450111743</v>
+        <v>0.9120055232369659</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05408422480878512</v>
+        <v>0.5268070376972501</v>
       </c>
       <c r="N4" t="n">
-        <v>141.7313560023463</v>
+        <v>36.62618888648044</v>
       </c>
       <c r="O4" t="n">
-        <v>283.0665285455627</v>
+        <v>73.59077247470627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_8</t>
+          <t>model_1_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9993116574932986</v>
+        <v>0.9352544240981453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8265592013606951</v>
+        <v>0.72937395361943</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8153854652706487</v>
+        <v>0.6697794806235042</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9984702357177569</v>
+        <v>0.9072721467450365</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002865244060709015</v>
+        <v>0.2695051881932791</v>
       </c>
       <c r="G5" t="n">
-        <v>1.159799419122476</v>
+        <v>1.809677618265234</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6603554861611198</v>
+        <v>1.181179650523878</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004043829714737635</v>
+        <v>0.3186819186766749</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1122998132991187</v>
+        <v>1.33471196061717</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05352797456198969</v>
+        <v>0.5191388910429261</v>
       </c>
       <c r="L5" t="n">
-        <v>1.044053920428887</v>
+        <v>0.9118358115378999</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05437098665299732</v>
+        <v>0.5273148096283502</v>
       </c>
       <c r="N5" t="n">
-        <v>141.7102034909194</v>
+        <v>36.62233527527478</v>
       </c>
       <c r="O5" t="n">
-        <v>283.0453760341358</v>
+        <v>73.5869188635006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_2</t>
+          <t>model_1_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9989988693469866</v>
+        <v>0.9351221811921295</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8260953635719693</v>
+        <v>0.728939554272465</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8172604354468271</v>
+        <v>0.6700384547345694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9983025880150955</v>
+        <v>0.9051578495705069</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004167233070186013</v>
+        <v>0.270055652820036</v>
       </c>
       <c r="G6" t="n">
-        <v>1.162901104551462</v>
+        <v>1.812582448698614</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6536488265579471</v>
+        <v>1.180253315144779</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004486995220364162</v>
+        <v>0.3259482173839159</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1022229971293919</v>
+        <v>1.334421977923177</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06455410963049535</v>
+        <v>0.5196687914624429</v>
       </c>
       <c r="L6" t="n">
-        <v>1.06407236179286</v>
+        <v>0.9116557360914104</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06557077232674061</v>
+        <v>0.5278530554497683</v>
       </c>
       <c r="N6" t="n">
-        <v>140.9610059914718</v>
+        <v>36.6182544393364</v>
       </c>
       <c r="O6" t="n">
-        <v>282.2961785346882</v>
+        <v>73.58283802756223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_6</t>
+          <t>model_1_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9992048640734812</v>
+        <v>0.9338359239350505</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8259939817388564</v>
+        <v>0.7255287346531825</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8161522221918895</v>
+        <v>0.6715288934611574</v>
       </c>
       <c r="E7" t="n">
-        <v>0.99849593300009</v>
+        <v>0.8880194143165416</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003309774521745381</v>
+        <v>0.2754097329916222</v>
       </c>
       <c r="G7" t="n">
-        <v>1.163579045336309</v>
+        <v>1.835390615198137</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6576128411129624</v>
+        <v>1.174922102240377</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003975900665084075</v>
+        <v>0.3848486366013453</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1120200155357801</v>
+        <v>1.332892663297506</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05753063985169451</v>
+        <v>0.5247949437557704</v>
       </c>
       <c r="L7" t="n">
-        <v>1.050888699297204</v>
+        <v>0.9099042368477284</v>
       </c>
       <c r="M7" t="n">
-        <v>0.05843668991981765</v>
+        <v>0.5330599395174433</v>
       </c>
       <c r="N7" t="n">
-        <v>141.4217504244642</v>
+        <v>36.57899070404156</v>
       </c>
       <c r="O7" t="n">
-        <v>282.7569229676806</v>
+        <v>73.54357429226738</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_7</t>
+          <t>model_1_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9992264053170806</v>
+        <v>0.9336516831770579</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8259252999804537</v>
+        <v>0.7251122199263675</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8160048290945232</v>
+        <v>0.6716523540809378</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9984671436399967</v>
+        <v>0.8858684879648424</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003220108520179519</v>
+        <v>0.2761766400654112</v>
       </c>
       <c r="G8" t="n">
-        <v>1.164038320570998</v>
+        <v>1.838175851094222</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6581400576758988</v>
+        <v>1.17448049076208</v>
       </c>
       <c r="I8" t="n">
-        <v>0.004052003415792271</v>
+        <v>0.3922408204234703</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1137686595521469</v>
+        <v>1.3327927893618</v>
       </c>
       <c r="K8" t="n">
-        <v>0.05674600003682655</v>
+        <v>0.5255251088819746</v>
       </c>
       <c r="L8" t="n">
-        <v>1.04951005970684</v>
+        <v>0.9096533558155683</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05763969281221756</v>
+        <v>0.5338016040144878</v>
       </c>
       <c r="N8" t="n">
-        <v>141.4766804361492</v>
+        <v>36.5734292354816</v>
       </c>
       <c r="O8" t="n">
-        <v>282.8118529793657</v>
+        <v>73.53801282370742</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_5</t>
+          <t>model_1_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9991893321426177</v>
+        <v>0.9316262084498506</v>
       </c>
       <c r="C9" t="n">
-        <v>0.825819262740399</v>
+        <v>0.7210981955309981</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8160381472437308</v>
+        <v>0.672310570955192</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9984492124099452</v>
+        <v>0.864600391217464</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003374426598617843</v>
+        <v>0.2846077326911717</v>
       </c>
       <c r="G9" t="n">
-        <v>1.164747392083501</v>
+        <v>1.86501765070894</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6580208805880805</v>
+        <v>1.17212608716848</v>
       </c>
       <c r="I9" t="n">
-        <v>0.004099403424895201</v>
+        <v>0.4653338301302694</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1168987953930163</v>
+        <v>1.332820137769541</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05808981493013938</v>
+        <v>0.5334863941012664</v>
       </c>
       <c r="L9" t="n">
-        <v>1.051882742872465</v>
+        <v>0.9068952625700093</v>
       </c>
       <c r="M9" t="n">
-        <v>0.059004671446778</v>
+        <v>0.5418882715176181</v>
       </c>
       <c r="N9" t="n">
-        <v>141.3830597315951</v>
+        <v>36.51328684662379</v>
       </c>
       <c r="O9" t="n">
-        <v>282.7182322748115</v>
+        <v>73.47787043484962</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_4</t>
+          <t>model_1_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9990968934691159</v>
+        <v>0.9314102165861972</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8256275890395799</v>
+        <v>0.7207133035118218</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8163289538801499</v>
+        <v>0.6723286687606644</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9984953126417965</v>
+        <v>0.862514397039512</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003759205044888964</v>
+        <v>0.2855068045899277</v>
       </c>
       <c r="G10" t="n">
-        <v>1.166029115003453</v>
+        <v>1.867591425413436</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6569806821115468</v>
+        <v>1.172061352367677</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003977540540802436</v>
+        <v>0.4725028586760968</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1109458707797799</v>
+        <v>1.332924226241807</v>
       </c>
       <c r="K10" t="n">
-        <v>0.06131235638016993</v>
+        <v>0.5343283677570635</v>
       </c>
       <c r="L10" t="n">
-        <v>1.057798817976582</v>
+        <v>0.9066011459897153</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06227796470328692</v>
+        <v>0.5427435054168291</v>
       </c>
       <c r="N10" t="n">
-        <v>141.1670955363305</v>
+        <v>36.50697883245979</v>
       </c>
       <c r="O10" t="n">
-        <v>282.5022680795469</v>
+        <v>73.47156242068561</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_3</t>
+          <t>model_1_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9990674088454868</v>
+        <v>0.9311924606609936</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8255484844657269</v>
+        <v>0.7203315939306639</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8162559473911719</v>
+        <v>0.6723395730789941</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9984850542874681</v>
+        <v>0.8604384641808751</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003881935577891038</v>
+        <v>0.2864132194419813</v>
       </c>
       <c r="G11" t="n">
-        <v>1.166558087653052</v>
+        <v>1.870143919140251</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6572418220894617</v>
+        <v>1.17202234825328</v>
       </c>
       <c r="I11" t="n">
-        <v>0.004004657815364836</v>
+        <v>0.4796373090403835</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1123756938448614</v>
+        <v>1.333043255892989</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0623051809875474</v>
+        <v>0.5351758771114233</v>
       </c>
       <c r="L11" t="n">
-        <v>1.059685833888842</v>
+        <v>0.9063046272830551</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0632864253057701</v>
+        <v>0.5436043621963217</v>
       </c>
       <c r="N11" t="n">
-        <v>141.1028427789104</v>
+        <v>36.50063937538275</v>
       </c>
       <c r="O11" t="n">
-        <v>282.4380153221268</v>
+        <v>73.46522296360857</v>
       </c>
     </row>
   </sheetData>
